--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30700" windowHeight="13820" tabRatio="688"/>
+    <workbookView windowWidth="32560" windowHeight="13640" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>题目</t>
   </si>
@@ -42,52 +42,22 @@
     <t>相关题目</t>
   </si>
   <si>
-    <t>912- 排序数组</t>
+    <t>LCR170-数组中的逆序对</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>2024.06.12</t>
+    <t>2024.07.24</t>
   </si>
   <si>
     <t>1次/否</t>
   </si>
   <si>
-    <t>排序</t>
+    <t>912- 排序数组</t>
   </si>
   <si>
-    <t>20- 有效的括号</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>2024.06.13</t>
-  </si>
-  <si>
-    <t>1次/是</t>
-  </si>
-  <si>
-    <t>栈</t>
-  </si>
-  <si>
-    <t>215- 数组中的第K个最大元素</t>
-  </si>
-  <si>
-    <t>2024.06.14</t>
-  </si>
-  <si>
-    <t>快排，双路和三路快排还需要再写</t>
-  </si>
-  <si>
-    <t>203- 移除链表元素</t>
-  </si>
-  <si>
-    <t>2024.06.25</t>
-  </si>
-  <si>
-    <t>206- 反转链表</t>
+    <t>2024.06.12</t>
   </si>
   <si>
     <t>内容</t>
@@ -791,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,9 +801,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,9 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1198,7 +1162,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1207,8 +1171,8 @@
     <col min="2" max="3" width="20.0288461538462" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.0673076923077" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.8076923076923" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.2307692307692" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.8173076923077" style="13" customWidth="1"/>
+    <col min="6" max="6" width="33.6538461538462" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.8173076923077" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1219,7 +1183,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1240,9 +1204,9 @@
         <v>7</v>
       </c>
       <c r="B2" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1251,95 +1215,59 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
-        <v>225</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6">
-        <v>440</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6">
-        <v>612</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
@@ -1348,7 +1276,7 @@
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
@@ -1357,7 +1285,7 @@
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
@@ -1366,52 +1294,52 @@
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -1420,7 +1348,7 @@
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -1429,7 +1357,7 @@
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -1438,7 +1366,7 @@
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -1447,7 +1375,7 @@
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -1456,7 +1384,7 @@
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
@@ -1465,7 +1393,7 @@
     <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
@@ -1474,7 +1402,7 @@
     <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
@@ -1483,7 +1411,7 @@
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
@@ -1492,7 +1420,7 @@
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
@@ -1501,7 +1429,7 @@
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
@@ -1510,7 +1438,7 @@
     <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
@@ -1519,7 +1447,7 @@
     <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
@@ -1528,7 +1456,7 @@
     <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6"/>
@@ -1537,7 +1465,7 @@
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
@@ -1546,7 +1474,7 @@
     <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
@@ -1555,7 +1483,7 @@
     <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
@@ -1564,7 +1492,7 @@
     <row r="32" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
@@ -1573,7 +1501,7 @@
     <row r="33" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
@@ -1582,7 +1510,7 @@
     <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
@@ -1591,7 +1519,7 @@
     <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
@@ -1600,7 +1528,7 @@
     <row r="36" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
@@ -1609,7 +1537,7 @@
     <row r="37" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
@@ -1618,7 +1546,7 @@
     <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="15"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6"/>
@@ -1627,7 +1555,7 @@
     <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="15"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6"/>
@@ -1636,7 +1564,7 @@
     <row r="40" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6"/>
@@ -1645,7 +1573,7 @@
     <row r="41" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6"/>
@@ -1654,7 +1582,7 @@
     <row r="42" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="15"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="6"/>
@@ -1663,7 +1591,7 @@
     <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="6"/>
@@ -1672,7 +1600,7 @@
     <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="15"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="6"/>
@@ -1681,7 +1609,7 @@
     <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="15"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6"/>
@@ -1690,7 +1618,7 @@
     <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="15"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6"/>
@@ -1699,7 +1627,7 @@
     <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="15"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="6"/>
@@ -1708,7 +1636,7 @@
     <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="15"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="6"/>
@@ -1717,7 +1645,7 @@
     <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="15"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="6"/>
@@ -1726,7 +1654,7 @@
     <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="15"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6"/>
@@ -1735,7 +1663,7 @@
     <row r="51" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="6"/>
@@ -1744,7 +1672,7 @@
     <row r="52" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="15"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="6"/>
@@ -1753,7 +1681,7 @@
     <row r="53" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="15"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6"/>
@@ -1762,7 +1690,7 @@
     <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="15"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="6"/>
@@ -1771,7 +1699,7 @@
     <row r="55" s="1" customFormat="1" ht="169" customHeight="1" spans="1:7">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="15"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="6"/>
@@ -1780,7 +1708,7 @@
     <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="15"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="6"/>
@@ -1789,7 +1717,7 @@
     <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="15"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="6"/>
@@ -1798,7 +1726,7 @@
     <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="15"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="6"/>
@@ -1807,7 +1735,7 @@
     <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="15"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="6"/>
@@ -1816,7 +1744,7 @@
     <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="6"/>
@@ -1825,7 +1753,7 @@
     <row r="61" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="6"/>
@@ -1834,7 +1762,7 @@
     <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="15"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="6"/>
@@ -1843,7 +1771,7 @@
     <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="15"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="6"/>
@@ -1852,7 +1780,7 @@
     <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="15"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="6"/>
@@ -1861,7 +1789,7 @@
     <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="15"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="6"/>
@@ -1870,7 +1798,7 @@
     <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="15"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="6"/>
@@ -1879,7 +1807,7 @@
     <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="15"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="6"/>
@@ -1888,7 +1816,7 @@
     <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="15"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="6"/>
@@ -1897,7 +1825,7 @@
     <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="15"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="6"/>
@@ -1906,7 +1834,7 @@
     <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="15"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="6"/>
@@ -1915,7 +1843,7 @@
     <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="15"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="6"/>
@@ -1924,7 +1852,7 @@
     <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="15"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="6"/>
@@ -1933,7 +1861,7 @@
     <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="15"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="6"/>
@@ -1942,7 +1870,7 @@
     <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="15"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="6"/>
@@ -1951,7 +1879,7 @@
     <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="15"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="6"/>
@@ -1960,7 +1888,7 @@
     <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="15"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="6"/>
@@ -1969,7 +1897,7 @@
     <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="15"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="6"/>
@@ -1978,7 +1906,7 @@
     <row r="78" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="15"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="6"/>
@@ -1987,7 +1915,7 @@
     <row r="79" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="6"/>
@@ -1996,7 +1924,7 @@
     <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="6"/>
@@ -2005,7 +1933,7 @@
     <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="6"/>
@@ -2014,7 +1942,7 @@
     <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="15"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="6"/>
@@ -2023,7 +1951,7 @@
     <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="6"/>
@@ -2032,7 +1960,7 @@
     <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="15"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="6"/>
@@ -2041,7 +1969,7 @@
     <row r="85" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="15"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="6"/>
@@ -2050,7 +1978,7 @@
     <row r="86" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="6"/>
@@ -2059,7 +1987,7 @@
     <row r="87" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="15"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="6"/>
@@ -2068,7 +1996,7 @@
     <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="15"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="6"/>
@@ -2077,16 +2005,16 @@
     <row r="89" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A89" s="10"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="17"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="18"/>
+      <c r="G89" s="16"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="15"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="6"/>
@@ -2095,7 +2023,7 @@
     <row r="91" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="15"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="6"/>
@@ -2104,7 +2032,7 @@
     <row r="92" s="1" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="15"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="6"/>
@@ -2113,7 +2041,7 @@
     <row r="93" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="15"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="6"/>
@@ -2122,7 +2050,7 @@
     <row r="94" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="15"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="6"/>
@@ -2131,7 +2059,7 @@
     <row r="95" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="15"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="6"/>
@@ -2140,7 +2068,7 @@
     <row r="96" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="15"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="6"/>
@@ -2149,7 +2077,7 @@
     <row r="97" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="15"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
@@ -2158,7 +2086,7 @@
     <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="15"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="6"/>
@@ -2167,7 +2095,7 @@
     <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="15"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="6"/>
@@ -2176,7 +2104,7 @@
     <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="15"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="6"/>
@@ -2185,16 +2113,16 @@
     <row r="101" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A101" s="10"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="17"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="18"/>
+      <c r="G101" s="16"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="15"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="6"/>
@@ -2203,7 +2131,7 @@
     <row r="103" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="15"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="6"/>
@@ -2212,7 +2140,7 @@
     <row r="104" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="15"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="6"/>
@@ -2221,7 +2149,7 @@
     <row r="105" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="15"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
@@ -2230,7 +2158,7 @@
     <row r="106" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="15"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
@@ -2239,7 +2167,7 @@
     <row r="107" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="15"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
@@ -2248,7 +2176,7 @@
     <row r="108" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="15"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
@@ -2257,7 +2185,7 @@
     <row r="109" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="15"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
@@ -2266,7 +2194,7 @@
     <row r="110" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="15"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
@@ -2275,7 +2203,7 @@
     <row r="111" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="15"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
@@ -2284,7 +2212,7 @@
     <row r="112" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="15"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
@@ -2293,7 +2221,7 @@
     <row r="113" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="15"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -2302,7 +2230,7 @@
     <row r="114" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="15"/>
+      <c r="C114" s="14"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -2311,7 +2239,7 @@
     <row r="115" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="15"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -2320,7 +2248,7 @@
     <row r="116" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="15"/>
+      <c r="C116" s="14"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -2329,7 +2257,7 @@
     <row r="117" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="15"/>
+      <c r="C117" s="14"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -2338,7 +2266,7 @@
     <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
-      <c r="C118" s="15"/>
+      <c r="C118" s="14"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -2347,16 +2275,16 @@
     <row r="119" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A119" s="10"/>
       <c r="B119" s="9"/>
-      <c r="C119" s="17"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="18"/>
+      <c r="G119" s="16"/>
     </row>
     <row r="120" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="15"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="6"/>
@@ -2365,7 +2293,7 @@
     <row r="121" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="15"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
@@ -2374,7 +2302,7 @@
     <row r="122" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="15"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
@@ -2383,7 +2311,7 @@
     <row r="123" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="15"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="6"/>
@@ -2392,7 +2320,7 @@
     <row r="124" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="15"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="6"/>
@@ -2401,7 +2329,7 @@
     <row r="125" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="15"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="6"/>
@@ -2410,7 +2338,7 @@
     <row r="126" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="15"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="6"/>
@@ -2419,7 +2347,7 @@
     <row r="127" s="1" customFormat="1" ht="67" customHeight="1" spans="1:7">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="15"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="6"/>
@@ -2428,7 +2356,7 @@
     <row r="128" s="1" customFormat="1" ht="38" customHeight="1" spans="1:7">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
-      <c r="C128" s="15"/>
+      <c r="C128" s="14"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="6"/>
@@ -2437,7 +2365,7 @@
     <row r="129" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="15"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="6"/>
@@ -2446,7 +2374,7 @@
     <row r="130" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="15"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="6"/>
@@ -2455,7 +2383,7 @@
     <row r="131" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
-      <c r="C131" s="15"/>
+      <c r="C131" s="14"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="6"/>
@@ -2464,7 +2392,7 @@
     <row r="132" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
-      <c r="C132" s="15"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="6"/>
@@ -2473,7 +2401,7 @@
     <row r="133" s="1" customFormat="1" ht="94" customHeight="1" spans="1:7">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
-      <c r="C133" s="15"/>
+      <c r="C133" s="14"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="6"/>
@@ -2482,7 +2410,7 @@
     <row r="134" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="15"/>
+      <c r="C134" s="14"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="6"/>
@@ -2491,7 +2419,7 @@
     <row r="135" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="15"/>
+      <c r="C135" s="14"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="6"/>
@@ -2500,7 +2428,7 @@
     <row r="136" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="15"/>
+      <c r="C136" s="14"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="6"/>
@@ -2509,7 +2437,7 @@
     <row r="137" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="15"/>
+      <c r="C137" s="14"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="6"/>
@@ -2518,7 +2446,7 @@
     <row r="138" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="15"/>
+      <c r="C138" s="14"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="6"/>
@@ -2527,7 +2455,7 @@
     <row r="139" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="15"/>
+      <c r="C139" s="14"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="6"/>
@@ -2536,7 +2464,7 @@
     <row r="140" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="15"/>
+      <c r="C140" s="14"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="6"/>
@@ -2545,7 +2473,7 @@
     <row r="141" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="15"/>
+      <c r="C141" s="14"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="6"/>
@@ -2554,7 +2482,7 @@
     <row r="142" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="15"/>
+      <c r="C142" s="14"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="6"/>
@@ -2563,7 +2491,7 @@
     <row r="143" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="15"/>
+      <c r="C143" s="14"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="6"/>
@@ -2572,7 +2500,7 @@
     <row r="144" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
-      <c r="C144" s="15"/>
+      <c r="C144" s="14"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="6"/>
@@ -2581,7 +2509,7 @@
     <row r="145" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A145" s="11"/>
       <c r="B145" s="9"/>
-      <c r="C145" s="17"/>
+      <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="9"/>
@@ -2590,7 +2518,7 @@
     <row r="146" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="15"/>
+      <c r="C146" s="14"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="6"/>
@@ -2599,7 +2527,7 @@
     <row r="147" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
-      <c r="C147" s="15"/>
+      <c r="C147" s="14"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="6"/>
@@ -2608,7 +2536,7 @@
     <row r="148" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
-      <c r="C148" s="15"/>
+      <c r="C148" s="14"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="6"/>
@@ -2617,7 +2545,7 @@
     <row r="149" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
-      <c r="C149" s="15"/>
+      <c r="C149" s="14"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="6"/>
@@ -2626,7 +2554,7 @@
     <row r="150" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
-      <c r="C150" s="15"/>
+      <c r="C150" s="14"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="6"/>
@@ -2635,7 +2563,7 @@
     <row r="151" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
-      <c r="C151" s="15"/>
+      <c r="C151" s="14"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="6"/>
@@ -2644,7 +2572,7 @@
     <row r="152" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
-      <c r="C152" s="15"/>
+      <c r="C152" s="14"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="6"/>
@@ -2653,7 +2581,7 @@
     <row r="153" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
-      <c r="C153" s="15"/>
+      <c r="C153" s="14"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="6"/>
@@ -2662,7 +2590,7 @@
     <row r="154" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
-      <c r="C154" s="15"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="6"/>
@@ -2671,7 +2599,7 @@
     <row r="155" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
-      <c r="C155" s="15"/>
+      <c r="C155" s="14"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="6"/>
@@ -2680,7 +2608,7 @@
     <row r="156" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
-      <c r="C156" s="15"/>
+      <c r="C156" s="14"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="6"/>
@@ -2689,7 +2617,7 @@
     <row r="157" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
-      <c r="C157" s="15"/>
+      <c r="C157" s="14"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="6"/>
@@ -2698,7 +2626,7 @@
     <row r="158" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
-      <c r="C158" s="15"/>
+      <c r="C158" s="14"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="6"/>
@@ -2707,7 +2635,7 @@
     <row r="159" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
-      <c r="C159" s="15"/>
+      <c r="C159" s="14"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="6"/>
@@ -2716,7 +2644,7 @@
     <row r="160" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
-      <c r="C160" s="15"/>
+      <c r="C160" s="14"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="6"/>
@@ -2725,16 +2653,16 @@
     <row r="161" s="2" customFormat="1" ht="48" customHeight="1" spans="1:7">
       <c r="A161" s="10"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="17"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="18"/>
+      <c r="G161" s="16"/>
     </row>
     <row r="162" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
-      <c r="C162" s="15"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="6"/>
@@ -2743,7 +2671,7 @@
     <row r="163" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
-      <c r="C163" s="15"/>
+      <c r="C163" s="14"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="6"/>
@@ -2752,7 +2680,7 @@
     <row r="164" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
-      <c r="C164" s="15"/>
+      <c r="C164" s="14"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="6"/>
@@ -2761,7 +2689,7 @@
     <row r="165" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
       <c r="A165" s="11"/>
       <c r="B165" s="9"/>
-      <c r="C165" s="17"/>
+      <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
       <c r="F165" s="9"/>
@@ -2770,7 +2698,7 @@
     <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
-      <c r="C166" s="15"/>
+      <c r="C166" s="14"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="6"/>
@@ -2779,7 +2707,7 @@
     <row r="167" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
-      <c r="C167" s="15"/>
+      <c r="C167" s="14"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="6"/>
@@ -2788,7 +2716,7 @@
     <row r="168" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
-      <c r="C168" s="15"/>
+      <c r="C168" s="14"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="6"/>
@@ -2797,7 +2725,7 @@
     <row r="169" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
-      <c r="C169" s="15"/>
+      <c r="C169" s="14"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="6"/>
@@ -2806,7 +2734,7 @@
     <row r="170" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
-      <c r="C170" s="15"/>
+      <c r="C170" s="14"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="6"/>
@@ -2815,7 +2743,7 @@
     <row r="171" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
-      <c r="C171" s="15"/>
+      <c r="C171" s="14"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="6"/>
@@ -2824,7 +2752,7 @@
     <row r="172" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
-      <c r="C172" s="15"/>
+      <c r="C172" s="14"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="6"/>
@@ -2833,7 +2761,7 @@
     <row r="173" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
-      <c r="C173" s="15"/>
+      <c r="C173" s="14"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="6"/>
@@ -2842,7 +2770,7 @@
     <row r="174" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
-      <c r="C174" s="15"/>
+      <c r="C174" s="14"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="6"/>
@@ -2851,7 +2779,7 @@
     <row r="175" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
-      <c r="C175" s="15"/>
+      <c r="C175" s="14"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="6"/>
@@ -2860,7 +2788,7 @@
     <row r="176" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
-      <c r="C176" s="15"/>
+      <c r="C176" s="14"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="6"/>
@@ -2869,7 +2797,7 @@
     <row r="177" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
-      <c r="C177" s="15"/>
+      <c r="C177" s="14"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="6"/>
@@ -2878,7 +2806,7 @@
     <row r="178" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
-      <c r="C178" s="15"/>
+      <c r="C178" s="14"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="6"/>
@@ -2887,7 +2815,7 @@
     <row r="179" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
-      <c r="C179" s="15"/>
+      <c r="C179" s="14"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="6"/>
@@ -2896,7 +2824,7 @@
     <row r="180" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
-      <c r="C180" s="15"/>
+      <c r="C180" s="14"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="6"/>
@@ -2905,7 +2833,7 @@
     <row r="181" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
-      <c r="C181" s="15"/>
+      <c r="C181" s="14"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="6"/>
@@ -2914,7 +2842,7 @@
     <row r="182" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
-      <c r="C182" s="15"/>
+      <c r="C182" s="14"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="6"/>
@@ -2923,7 +2851,7 @@
     <row r="183" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
-      <c r="C183" s="15"/>
+      <c r="C183" s="14"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="6"/>
@@ -2932,7 +2860,7 @@
     <row r="184" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
-      <c r="C184" s="15"/>
+      <c r="C184" s="14"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="6"/>
@@ -2941,7 +2869,7 @@
     <row r="185" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
-      <c r="C185" s="15"/>
+      <c r="C185" s="14"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="6"/>
@@ -2950,7 +2878,7 @@
     <row r="186" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
-      <c r="C186" s="15"/>
+      <c r="C186" s="14"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="6"/>
@@ -2959,7 +2887,7 @@
     <row r="187" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
-      <c r="C187" s="15"/>
+      <c r="C187" s="14"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="6"/>
@@ -2968,7 +2896,7 @@
     <row r="188" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
-      <c r="C188" s="15"/>
+      <c r="C188" s="14"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="6"/>
@@ -2977,16 +2905,16 @@
     <row r="189" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A189" s="10"/>
       <c r="B189" s="9"/>
-      <c r="C189" s="17"/>
+      <c r="C189" s="11"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="18"/>
+      <c r="G189" s="16"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
-      <c r="C190" s="15"/>
+      <c r="C190" s="14"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="6"/>
@@ -2995,7 +2923,7 @@
     <row r="191" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
-      <c r="C191" s="15"/>
+      <c r="C191" s="14"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="6"/>
@@ -3004,7 +2932,7 @@
     <row r="192" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
-      <c r="C192" s="15"/>
+      <c r="C192" s="14"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="6"/>
@@ -3013,7 +2941,7 @@
     <row r="193" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
-      <c r="C193" s="15"/>
+      <c r="C193" s="14"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="6"/>
@@ -3022,7 +2950,7 @@
     <row r="194" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
-      <c r="C194" s="15"/>
+      <c r="C194" s="14"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="6"/>
@@ -3031,7 +2959,7 @@
     <row r="195" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
-      <c r="C195" s="15"/>
+      <c r="C195" s="14"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="6"/>
@@ -3040,7 +2968,7 @@
     <row r="196" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
-      <c r="C196" s="15"/>
+      <c r="C196" s="14"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="6"/>
@@ -3049,7 +2977,7 @@
     <row r="197" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A197" s="11"/>
       <c r="B197" s="9"/>
-      <c r="C197" s="17"/>
+      <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
       <c r="F197" s="9"/>
@@ -3058,7 +2986,7 @@
     <row r="198" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
-      <c r="C198" s="15"/>
+      <c r="C198" s="14"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="6"/>
@@ -3067,7 +2995,7 @@
     <row r="199" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
-      <c r="C199" s="15"/>
+      <c r="C199" s="14"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="6"/>
@@ -3076,7 +3004,7 @@
     <row r="200" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
-      <c r="C200" s="15"/>
+      <c r="C200" s="14"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="6"/>
@@ -3085,7 +3013,7 @@
     <row r="201" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A201" s="7"/>
       <c r="B201" s="6"/>
-      <c r="C201" s="15"/>
+      <c r="C201" s="14"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="6"/>
@@ -3094,7 +3022,7 @@
     <row r="202" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A202" s="7"/>
       <c r="B202" s="6"/>
-      <c r="C202" s="15"/>
+      <c r="C202" s="14"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="6"/>
@@ -3103,7 +3031,7 @@
     <row r="203" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A203" s="7"/>
       <c r="B203" s="6"/>
-      <c r="C203" s="15"/>
+      <c r="C203" s="14"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="6"/>
@@ -3112,7 +3040,7 @@
     <row r="204" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A204" s="7"/>
       <c r="B204" s="6"/>
-      <c r="C204" s="15"/>
+      <c r="C204" s="14"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="6"/>
@@ -3121,7 +3049,7 @@
     <row r="205" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A205" s="7"/>
       <c r="B205" s="6"/>
-      <c r="C205" s="15"/>
+      <c r="C205" s="14"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="6"/>
@@ -3130,7 +3058,7 @@
     <row r="206" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A206" s="7"/>
       <c r="B206" s="6"/>
-      <c r="C206" s="15"/>
+      <c r="C206" s="14"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="6"/>
@@ -3139,7 +3067,7 @@
     <row r="207" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A207" s="7"/>
       <c r="B207" s="6"/>
-      <c r="C207" s="15"/>
+      <c r="C207" s="14"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="6"/>
@@ -3148,7 +3076,7 @@
     <row r="208" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A208" s="7"/>
       <c r="B208" s="6"/>
-      <c r="C208" s="15"/>
+      <c r="C208" s="14"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="6"/>
@@ -3157,7 +3085,7 @@
     <row r="209" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A209" s="7"/>
       <c r="B209" s="6"/>
-      <c r="C209" s="15"/>
+      <c r="C209" s="14"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="6"/>
@@ -3166,7 +3094,7 @@
     <row r="210" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A210" s="7"/>
       <c r="B210" s="6"/>
-      <c r="C210" s="15"/>
+      <c r="C210" s="14"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="6"/>
@@ -3175,7 +3103,7 @@
     <row r="211" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A211" s="7"/>
       <c r="B211" s="6"/>
-      <c r="C211" s="15"/>
+      <c r="C211" s="14"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
       <c r="F211" s="6"/>
@@ -3184,7 +3112,7 @@
     <row r="212" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A212" s="7"/>
       <c r="B212" s="6"/>
-      <c r="C212" s="15"/>
+      <c r="C212" s="14"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="6"/>
@@ -3193,7 +3121,7 @@
     <row r="213" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A213" s="7"/>
       <c r="B213" s="6"/>
-      <c r="C213" s="15"/>
+      <c r="C213" s="14"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="6"/>
@@ -3202,7 +3130,7 @@
     <row r="214" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
       <c r="A214" s="7"/>
       <c r="B214" s="6"/>
-      <c r="C214" s="15"/>
+      <c r="C214" s="14"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="6"/>
@@ -3211,7 +3139,7 @@
     <row r="215" s="2" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A215" s="11"/>
       <c r="B215" s="9"/>
-      <c r="C215" s="17"/>
+      <c r="C215" s="11"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
       <c r="F215" s="9"/>
@@ -3220,7 +3148,7 @@
     <row r="216" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A216" s="7"/>
       <c r="B216" s="6"/>
-      <c r="C216" s="15"/>
+      <c r="C216" s="14"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="6"/>
@@ -3229,7 +3157,7 @@
     <row r="217" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A217" s="7"/>
       <c r="B217" s="6"/>
-      <c r="C217" s="15"/>
+      <c r="C217" s="14"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
       <c r="F217" s="6"/>
@@ -3238,7 +3166,7 @@
     <row r="218" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A218" s="7"/>
       <c r="B218" s="6"/>
-      <c r="C218" s="15"/>
+      <c r="C218" s="14"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="6"/>
@@ -3247,7 +3175,7 @@
     <row r="219" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A219" s="7"/>
       <c r="B219" s="6"/>
-      <c r="C219" s="15"/>
+      <c r="C219" s="14"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="6"/>
@@ -3256,7 +3184,7 @@
     <row r="220" s="2" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A220" s="11"/>
       <c r="B220" s="9"/>
-      <c r="C220" s="17"/>
+      <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="9"/>
@@ -3265,7 +3193,7 @@
     <row r="221" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A221" s="7"/>
       <c r="B221" s="6"/>
-      <c r="C221" s="15"/>
+      <c r="C221" s="14"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="6"/>
@@ -3274,7 +3202,7 @@
     <row r="222" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A222" s="7"/>
       <c r="B222" s="6"/>
-      <c r="C222" s="15"/>
+      <c r="C222" s="14"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="6"/>
@@ -3283,7 +3211,7 @@
     <row r="223" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A223" s="7"/>
       <c r="B223" s="6"/>
-      <c r="C223" s="15"/>
+      <c r="C223" s="14"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="6"/>
@@ -3292,7 +3220,7 @@
     <row r="224" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
       <c r="A224" s="7"/>
       <c r="B224" s="6"/>
-      <c r="C224" s="15"/>
+      <c r="C224" s="14"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="8"/>
@@ -3301,7 +3229,7 @@
     <row r="225" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A225" s="7"/>
       <c r="B225" s="6"/>
-      <c r="C225" s="15"/>
+      <c r="C225" s="14"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="12"/>
@@ -3310,7 +3238,7 @@
     <row r="226" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A226" s="7"/>
       <c r="B226" s="6"/>
-      <c r="C226" s="15"/>
+      <c r="C226" s="14"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="12"/>
@@ -3319,7 +3247,7 @@
     <row r="227" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A227" s="7"/>
       <c r="B227" s="6"/>
-      <c r="C227" s="15"/>
+      <c r="C227" s="14"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="12"/>
@@ -3328,7 +3256,7 @@
     <row r="228" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A228" s="7"/>
       <c r="B228" s="6"/>
-      <c r="C228" s="15"/>
+      <c r="C228" s="14"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="12"/>
@@ -3337,7 +3265,7 @@
     <row r="229" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A229" s="7"/>
       <c r="B229" s="6"/>
-      <c r="C229" s="15"/>
+      <c r="C229" s="14"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="12"/>
@@ -3373,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3384,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3393,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32560" windowHeight="13640" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13380" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -14,12 +14,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$B$2:$G$229</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>题目</t>
   </si>
@@ -48,16 +61,19 @@
     <t>n</t>
   </si>
   <si>
-    <t>2024.07.24</t>
+    <t>2024.09.23</t>
   </si>
   <si>
-    <t>1次/否</t>
+    <t>3次/否</t>
   </si>
   <si>
     <t>912- 排序数组</t>
   </si>
   <si>
     <t>2024.06.12</t>
+  </si>
+  <si>
+    <t>1次/否</t>
   </si>
   <si>
     <t>内容</t>
@@ -1162,7 +1178,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1232,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="15"/>
@@ -3301,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3312,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3321,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13380" tabRatio="688"/>
+    <workbookView windowWidth="25080" windowHeight="13320" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>题目</t>
   </si>
@@ -70,7 +70,16 @@
     <t>912- 排序数组</t>
   </si>
   <si>
-    <t>2024.06.12</t>
+    <t>2024.09.26</t>
+  </si>
+  <si>
+    <t>2次/否</t>
+  </si>
+  <si>
+    <t>75- 颜色分类</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>1次/否</t>
@@ -1178,7 +1187,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1254,11 +1263,21 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <v>38</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="15"/>
     </row>
@@ -3317,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3328,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3337,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="13320" tabRatio="688"/>
+    <workbookView windowWidth="29560" windowHeight="13320" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>题目</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>1次/否</t>
+  </si>
+  <si>
+    <t>34-在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>2024.10.08</t>
   </si>
   <si>
     <t>内容</t>
@@ -1187,12 +1193,12 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="41.6634615384615" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6826923076923" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.0288461538462" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.0673076923077" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.8076923076923" style="1" customWidth="1"/>
@@ -1282,11 +1288,21 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>75</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="15"/>
     </row>
@@ -3336,10 +3352,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3347,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3356,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>题目</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>2024.10.08</t>
+  </si>
+  <si>
+    <t>875-爱吃香蕉的珂珂</t>
+  </si>
+  <si>
+    <t>1011-在D天内送达包裹的能力</t>
+  </si>
+  <si>
+    <t>2024.10.09</t>
   </si>
   <si>
     <t>内容</t>
@@ -1193,7 +1202,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1307,22 +1316,42 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A8" s="7"/>
@@ -3352,10 +3381,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3363,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3372,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="13320" tabRatio="688"/>
+    <workbookView windowWidth="26020" windowHeight="11100" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>题目</t>
   </si>
@@ -98,6 +98,39 @@
   </si>
   <si>
     <t>2024.10.09</t>
+  </si>
+  <si>
+    <t>215-数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>2024.10.10</t>
+  </si>
+  <si>
+    <t>3-无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>2024.10.11</t>
+  </si>
+  <si>
+    <t>88-合并两个有序数组</t>
+  </si>
+  <si>
+    <t>2024.10.12</t>
+  </si>
+  <si>
+    <t>1次/是</t>
+  </si>
+  <si>
+    <t>76-最小覆盖子串</t>
+  </si>
+  <si>
+    <t>2024.10.18</t>
+  </si>
+  <si>
+    <t>209-长度最小的子数组</t>
+  </si>
+  <si>
+    <t>2024.10.22</t>
   </si>
   <si>
     <t>内容</t>
@@ -1202,7 +1235,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1354,47 +1387,97 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>454</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>783</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>226</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6">
+        <v>97</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>57</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="15"/>
     </row>
@@ -3381,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3392,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3401,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26020" windowHeight="11100" tabRatio="688"/>
+    <workbookView windowWidth="22660" windowHeight="13300" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>题目</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>2024.10.22</t>
+  </si>
+  <si>
+    <t>283-移动零</t>
+  </si>
+  <si>
+    <t>2024.10.25</t>
   </si>
   <si>
     <t>内容</t>
@@ -1234,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1482,11 +1488,21 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6">
+        <v>52</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="15"/>
     </row>
@@ -3464,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3475,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3484,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22660" windowHeight="13300" tabRatio="688"/>
+    <workbookView windowWidth="25900" windowHeight="13300" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>题目</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>2024.10.25</t>
+  </si>
+  <si>
+    <t>11-盛最多水的容器</t>
+  </si>
+  <si>
+    <t>2024.10.29</t>
+  </si>
+  <si>
+    <t>26-删除有序数组中的重复项</t>
+  </si>
+  <si>
+    <t>2024.10.30</t>
   </si>
   <si>
     <t>内容</t>
@@ -1241,7 +1253,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1507,22 +1519,42 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6">
+        <v>47</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+    <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A16" s="7"/>
@@ -3480,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3491,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3500,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>题目</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>2024.10.30</t>
+  </si>
+  <si>
+    <t>125-验证回文串</t>
+  </si>
+  <si>
+    <t>2024.10.31</t>
   </si>
   <si>
     <t>内容</t>
@@ -1253,7 +1259,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1557,13 +1563,23 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A17" s="7"/>
@@ -3512,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3523,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3532,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25900" windowHeight="13300" tabRatio="688"/>
+    <workbookView windowWidth="26140" windowHeight="11920" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$B$2:$G$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$B$2:$G$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>题目</t>
   </si>
@@ -103,58 +103,70 @@
     <t>215-数组中的第K个最大元素</t>
   </si>
   <si>
-    <t>2024.10.10</t>
+    <t>2024.12.04</t>
   </si>
   <si>
     <t>3-无重复字符的最长子串</t>
   </si>
   <si>
-    <t>2024.10.11</t>
-  </si>
-  <si>
     <t>88-合并两个有序数组</t>
   </si>
   <si>
-    <t>2024.10.12</t>
+    <t>2024.12.05</t>
+  </si>
+  <si>
+    <t>2次/是</t>
+  </si>
+  <si>
+    <t>76-最小覆盖子串</t>
+  </si>
+  <si>
+    <t>2024.10.18</t>
+  </si>
+  <si>
+    <t>209-长度最小的子数组</t>
+  </si>
+  <si>
+    <t>2024.10.22</t>
+  </si>
+  <si>
+    <t>283-移动零</t>
+  </si>
+  <si>
+    <t>2024.10.25</t>
+  </si>
+  <si>
+    <t>11-盛最多水的容器</t>
+  </si>
+  <si>
+    <t>2024.10.29</t>
+  </si>
+  <si>
+    <t>26-删除有序数组中的重复项</t>
+  </si>
+  <si>
+    <t>2024.10.30</t>
+  </si>
+  <si>
+    <t>125-验证回文串</t>
+  </si>
+  <si>
+    <t>2024.10.31</t>
   </si>
   <si>
     <t>1次/是</t>
   </si>
   <si>
-    <t>76-最小覆盖子串</t>
-  </si>
-  <si>
-    <t>2024.10.18</t>
-  </si>
-  <si>
-    <t>209-长度最小的子数组</t>
-  </si>
-  <si>
-    <t>2024.10.22</t>
-  </si>
-  <si>
-    <t>283-移动零</t>
-  </si>
-  <si>
-    <t>2024.10.25</t>
-  </si>
-  <si>
-    <t>11-盛最多水的容器</t>
-  </si>
-  <si>
-    <t>2024.10.29</t>
-  </si>
-  <si>
-    <t>26-删除有序数组中的重复项</t>
-  </si>
-  <si>
-    <t>2024.10.30</t>
-  </si>
-  <si>
-    <t>125-验证回文串</t>
-  </si>
-  <si>
-    <t>2024.10.31</t>
+    <t>167-两数之和 II</t>
+  </si>
+  <si>
+    <t>2024.11.08</t>
+  </si>
+  <si>
+    <t>27-移除元素</t>
+  </si>
+  <si>
+    <t>2024.11.20</t>
   </si>
   <si>
     <t>内容</t>
@@ -1256,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1424,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="15"/>
@@ -1440,17 +1452,17 @@
         <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6">
         <v>226</v>
@@ -1459,17 +1471,17 @@
         <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6">
         <v>97</v>
@@ -1478,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
@@ -1488,7 +1500,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6">
         <v>57</v>
@@ -1497,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -1507,7 +1519,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6">
         <v>52</v>
@@ -1516,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>16</v>
@@ -1526,7 +1538,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6">
         <v>47</v>
@@ -1535,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
@@ -1545,7 +1557,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6">
         <v>40</v>
@@ -1554,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -1564,7 +1576,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6">
         <v>34</v>
@@ -1573,29 +1585,49 @@
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="8"/>
     </row>
@@ -1707,7 +1739,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="31" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="14"/>
@@ -1716,7 +1748,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
+    <row r="32" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="14"/>
@@ -1743,7 +1775,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="35" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="14"/>
@@ -1761,7 +1793,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+    <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="14"/>
@@ -1770,7 +1802,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="38" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="14"/>
@@ -1779,7 +1811,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+    <row r="39" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="14"/>
@@ -1878,7 +1910,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="50" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="14"/>
@@ -1887,7 +1919,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+    <row r="51" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="14"/>
@@ -1914,7 +1946,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+    <row r="54" s="1" customFormat="1" ht="169" customHeight="1" spans="1:7">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="14"/>
@@ -1923,7 +1955,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="169" customHeight="1" spans="1:7">
+    <row r="55" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="14"/>
@@ -1968,7 +2000,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="60" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="14"/>
@@ -1977,7 +2009,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
+    <row r="61" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61" s="14"/>
@@ -2220,25 +2252,25 @@
       <c r="F87" s="6"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A88" s="7"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A89" s="10"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+    <row r="88" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A88" s="10"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A89" s="7"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="14"/>
@@ -2247,7 +2279,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+    <row r="91" s="1" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="14"/>
@@ -2256,7 +2288,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="51" customHeight="1" spans="1:7">
+    <row r="92" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="14"/>
@@ -2319,7 +2351,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="99" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="14"/>
@@ -2328,25 +2360,25 @@
       <c r="F99" s="6"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A100" s="7"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A101" s="10"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="16"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+    <row r="100" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A100" s="10"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A101" s="7"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="14"/>
@@ -2490,25 +2522,25 @@
       <c r="F117" s="6"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A118" s="7"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
-      <c r="A119" s="10"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="16"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
+    <row r="118" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A118" s="10"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
+      <c r="A119" s="7"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="14"/>
@@ -2535,7 +2567,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="123" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="14"/>
@@ -2562,7 +2594,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+    <row r="126" s="1" customFormat="1" ht="67" customHeight="1" spans="1:7">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="14"/>
@@ -2571,7 +2603,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="67" customHeight="1" spans="1:7">
+    <row r="127" s="1" customFormat="1" ht="38" customHeight="1" spans="1:7">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="14"/>
@@ -2580,7 +2612,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" s="1" customFormat="1" ht="38" customHeight="1" spans="1:7">
+    <row r="128" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="14"/>
@@ -2589,7 +2621,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+    <row r="129" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="14"/>
@@ -2598,7 +2630,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
+    <row r="130" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="14"/>
@@ -2607,7 +2639,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+    <row r="131" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="14"/>
@@ -2616,7 +2648,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
+    <row r="132" s="1" customFormat="1" ht="94" customHeight="1" spans="1:7">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="14"/>
@@ -2625,7 +2657,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" s="1" customFormat="1" ht="94" customHeight="1" spans="1:7">
+    <row r="133" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="14"/>
@@ -2715,7 +2747,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="143" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="14"/>
@@ -2724,25 +2756,25 @@
       <c r="F143" s="6"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A144" s="7"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="8"/>
-    </row>
-    <row r="145" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
-      <c r="A145" s="11"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="144" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A144" s="11"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A145" s="7"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="14"/>
@@ -2814,7 +2846,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="154" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="14"/>
@@ -2823,7 +2855,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="155" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="14"/>
@@ -2859,7 +2891,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="159" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="14"/>
@@ -2868,23 +2900,23 @@
       <c r="F159" s="6"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A160" s="7"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="8"/>
-    </row>
-    <row r="161" s="2" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A161" s="10"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="16"/>
+    <row r="160" s="2" customFormat="1" ht="48" customHeight="1" spans="1:7">
+      <c r="A160" s="10"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="16"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A161" s="7"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A162" s="7"/>
@@ -2895,7 +2927,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="163" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="14"/>
@@ -2904,23 +2936,23 @@
       <c r="F163" s="6"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A164" s="7"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="8"/>
-    </row>
-    <row r="165" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
-      <c r="A165" s="11"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
+    <row r="164" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A164" s="11"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A165" s="7"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A166" s="7"/>
@@ -3120,23 +3152,23 @@
       <c r="F187" s="6"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A188" s="7"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="8"/>
-    </row>
-    <row r="189" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A189" s="10"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="16"/>
+    <row r="188" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A188" s="10"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="16"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A189" s="7"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="8"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A190" s="7"/>
@@ -3192,23 +3224,23 @@
       <c r="F195" s="6"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A196" s="7"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="8"/>
-    </row>
-    <row r="197" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A197" s="11"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
+    <row r="196" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A196" s="11"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A197" s="7"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="8"/>
     </row>
     <row r="198" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A198" s="7"/>
@@ -3219,7 +3251,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="199" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="14"/>
@@ -3228,7 +3260,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
+    <row r="200" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="14"/>
@@ -3345,7 +3377,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="213" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
       <c r="A213" s="7"/>
       <c r="B213" s="6"/>
       <c r="C213" s="14"/>
@@ -3354,23 +3386,23 @@
       <c r="F213" s="6"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
-      <c r="A214" s="7"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="8"/>
-    </row>
-    <row r="215" s="2" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A215" s="11"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
+    <row r="214" s="2" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A214" s="11"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A215" s="7"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="8"/>
     </row>
     <row r="216" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A216" s="7"/>
@@ -3399,23 +3431,23 @@
       <c r="F218" s="6"/>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A219" s="7"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="6"/>
-      <c r="G219" s="8"/>
-    </row>
-    <row r="220" s="2" customFormat="1" ht="43" customHeight="1" spans="1:7">
-      <c r="A220" s="11"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="9"/>
+    <row r="219" s="2" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A219" s="11"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+    </row>
+    <row r="220" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A220" s="7"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="8"/>
     </row>
     <row r="221" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A221" s="7"/>
@@ -3435,22 +3467,22 @@
       <c r="F222" s="6"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="223" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
       <c r="A223" s="7"/>
       <c r="B223" s="6"/>
       <c r="C223" s="14"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
-      <c r="F223" s="6"/>
+      <c r="F223" s="8"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+    <row r="224" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A224" s="7"/>
       <c r="B224" s="6"/>
       <c r="C224" s="14"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
-      <c r="F224" s="8"/>
+      <c r="F224" s="12"/>
       <c r="G224" s="8"/>
     </row>
     <row r="225" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3489,16 +3521,7 @@
       <c r="F228" s="12"/>
       <c r="G228" s="8"/>
     </row>
-    <row r="229" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A229" s="7"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="8"/>
-    </row>
-    <row r="230" ht="34" customHeight="1"/>
+    <row r="229" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3528,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3539,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3548,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26140" windowHeight="11920" tabRatio="688"/>
+    <workbookView windowWidth="29980" windowHeight="11920" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>题目</t>
   </si>
@@ -61,10 +61,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>2024.09.23</t>
-  </si>
-  <si>
-    <t>3次/否</t>
+    <t>2024.12.20</t>
+  </si>
+  <si>
+    <t>4次/否</t>
   </si>
   <si>
     <t>912- 排序数组</t>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>2024.11.20</t>
+  </si>
+  <si>
+    <t>1-两数之和</t>
+  </si>
+  <si>
+    <t>2024.12.23</t>
+  </si>
+  <si>
+    <t>acw789-数的范围</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>2024.12.30</t>
   </si>
   <si>
     <t>内容</t>
@@ -1270,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1632,20 +1647,40 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="6">
+        <v>221</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="8"/>
     </row>
@@ -3551,10 +3586,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3562,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3571,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29980" windowHeight="11920" tabRatio="688"/>
+    <workbookView windowWidth="29980" windowHeight="11320" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>题目</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>2024.12.30</t>
+  </si>
+  <si>
+    <t>acw790-数的三次方根</t>
+  </si>
+  <si>
+    <t>2024.12.31</t>
   </si>
   <si>
     <t>内容</t>
@@ -1286,7 +1292,7 @@
   <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1685,11 +1691,21 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="8"/>
     </row>
@@ -3586,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3597,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3606,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29980" windowHeight="11320" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>题目</t>
   </si>
@@ -55,139 +55,52 @@
     <t>相关题目</t>
   </si>
   <si>
-    <t>LCR170-数组中的逆序对</t>
+    <t>code148-排序链表</t>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
   </si>
   <si>
-    <t>2024.12.20</t>
-  </si>
-  <si>
-    <t>4次/否</t>
-  </si>
-  <si>
-    <t>912- 排序数组</t>
-  </si>
-  <si>
-    <t>2024.09.26</t>
+    <t>2025.02.22</t>
   </si>
   <si>
     <t>2次/否</t>
   </si>
   <si>
-    <t>75- 颜色分类</t>
+    <t>综合问题，难度较大</t>
   </si>
   <si>
-    <t>y</t>
+    <t>code56-合并区间</t>
+  </si>
+  <si>
+    <t>2025.02.24</t>
   </si>
   <si>
     <t>1次/否</t>
   </si>
   <si>
-    <t>34-在排序数组中查找元素的第一个和最后一个位置</t>
+    <t>code215-数组中的第K个最大元素</t>
   </si>
   <si>
-    <t>2024.10.08</t>
+    <t>3次/否</t>
   </si>
   <si>
-    <t>875-爱吃香蕉的珂珂</t>
+    <t>能做出思路，但是关键细节错误 +花费时间长</t>
   </si>
   <si>
-    <t>1011-在D天内送达包裹的能力</t>
+    <t>code27- 移除元素</t>
   </si>
   <si>
-    <t>2024.10.09</t>
+    <t>2025.02.25</t>
   </si>
   <si>
-    <t>215-数组中的第K个最大元素</t>
+    <t>没有独立实现最优方法</t>
   </si>
   <si>
-    <t>2024.12.04</t>
+    <t>LCR170-交易逆序对的总数</t>
   </si>
   <si>
-    <t>3-无重复字符的最长子串</t>
-  </si>
-  <si>
-    <t>88-合并两个有序数组</t>
-  </si>
-  <si>
-    <t>2024.12.05</t>
-  </si>
-  <si>
-    <t>2次/是</t>
-  </si>
-  <si>
-    <t>76-最小覆盖子串</t>
-  </si>
-  <si>
-    <t>2024.10.18</t>
-  </si>
-  <si>
-    <t>209-长度最小的子数组</t>
-  </si>
-  <si>
-    <t>2024.10.22</t>
-  </si>
-  <si>
-    <t>283-移动零</t>
-  </si>
-  <si>
-    <t>2024.10.25</t>
-  </si>
-  <si>
-    <t>11-盛最多水的容器</t>
-  </si>
-  <si>
-    <t>2024.10.29</t>
-  </si>
-  <si>
-    <t>26-删除有序数组中的重复项</t>
-  </si>
-  <si>
-    <t>2024.10.30</t>
-  </si>
-  <si>
-    <t>125-验证回文串</t>
-  </si>
-  <si>
-    <t>2024.10.31</t>
-  </si>
-  <si>
-    <t>1次/是</t>
-  </si>
-  <si>
-    <t>167-两数之和 II</t>
-  </si>
-  <si>
-    <t>2024.11.08</t>
-  </si>
-  <si>
-    <t>27-移除元素</t>
-  </si>
-  <si>
-    <t>2024.11.20</t>
-  </si>
-  <si>
-    <t>1-两数之和</t>
-  </si>
-  <si>
-    <t>2024.12.23</t>
-  </si>
-  <si>
-    <t>acw789-数的范围</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>2024.12.30</t>
-  </si>
-  <si>
-    <t>acw790-数的三次方根</t>
-  </si>
-  <si>
-    <t>2024.12.31</t>
+    <t>n</t>
   </si>
   <si>
     <t>内容</t>
@@ -1291,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1301,7 +1214,7 @@
     <col min="2" max="3" width="20.0288461538462" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.0673076923077" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.8076923076923" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6538461538462" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.5096153846154" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.8173076923077" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1334,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>8</v>
@@ -1345,367 +1258,225 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
-        <v>75</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
-        <v>454</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="6"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
-        <v>783</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="6"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6">
-        <v>226</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6">
-        <v>97</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6">
-        <v>57</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="6">
-        <v>47</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="6">
-        <v>40</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6">
-        <v>34</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="6">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="6">
-        <v>221</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="6"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="6"/>
       <c r="G21" s="8"/>
     </row>
@@ -3602,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3613,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3622,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>题目</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>code179_最大数</t>
+  </si>
+  <si>
+    <t>2025.02.26~2025.02.27</t>
+  </si>
+  <si>
+    <t>acw-789</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>2025.02.27</t>
+  </si>
+  <si>
+    <t>只尝试递归未尝试迭代；mid的取值要再练</t>
   </si>
   <si>
     <t>内容</t>
@@ -1205,16 +1223,17 @@
   <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="53.6826923076923" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.0288461538462" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.0673076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.1153846153846" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7788461538462" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4711538461538" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.9326923076923" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.8076923076923" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5096153846154" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.8173076923077" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1346,21 +1365,43 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>64</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3373,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3384,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3393,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>题目</t>
   </si>
@@ -55,7 +55,7 @@
     <t>相关题目</t>
   </si>
   <si>
-    <t>code148-排序链表</t>
+    <t>code148- 排序链表</t>
   </si>
   <si>
     <t>y</t>
@@ -70,7 +70,7 @@
     <t>综合问题，难度较大</t>
   </si>
   <si>
-    <t>code56-合并区间</t>
+    <t>code56- 合并区间</t>
   </si>
   <si>
     <t>2025.02.24</t>
@@ -79,7 +79,7 @@
     <t>1次/否</t>
   </si>
   <si>
-    <t>code215-数组中的第K个最大元素</t>
+    <t>code215- 数组中的第K个最大元素</t>
   </si>
   <si>
     <t>3次/否</t>
@@ -97,19 +97,19 @@
     <t>没有独立实现最优方法</t>
   </si>
   <si>
-    <t>LCR170-交易逆序对的总数</t>
+    <t>LCR170- 交易逆序对的总数</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>code179_最大数</t>
+    <t>code179- 最大数</t>
   </si>
   <si>
     <t>2025.02.26~2025.02.27</t>
   </si>
   <si>
-    <t>acw-789</t>
+    <t>acw-789 数的范围</t>
   </si>
   <si>
     <t>/</t>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>只尝试递归未尝试迭代；mid的取值要再练</t>
+  </si>
+  <si>
+    <t>code-75- 颜色分类</t>
+  </si>
+  <si>
+    <t>2025.02.28</t>
+  </si>
+  <si>
+    <t>指针/3路快排的实现不够熟练</t>
   </si>
   <si>
     <t>内容</t>
@@ -1405,12 +1414,24 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3414,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3425,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3434,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>题目</t>
   </si>
@@ -106,7 +106,7 @@
     <t>code179- 最大数</t>
   </si>
   <si>
-    <t>2025.02.26~2025.02.27</t>
+    <t>2025.02.26~2025.02.27==&gt;2day</t>
   </si>
   <si>
     <t>acw-789 数的范围</t>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>指针/3路快排的实现不够熟练</t>
+  </si>
+  <si>
+    <t>code4-寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>2025.03.02~2025.03.05==&gt;4day</t>
+  </si>
+  <si>
+    <t>很难</t>
   </si>
   <si>
     <t>内容</t>
@@ -1232,7 +1241,7 @@
   <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1240,7 +1249,7 @@
     <col min="1" max="1" width="47.1153846153846" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7788461538462" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.4711538461538" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.9326923076923" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.8076923076923" style="1" customWidth="1"/>
     <col min="6" max="6" width="47.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.8173076923077" style="3" customWidth="1"/>
@@ -1435,12 +1444,24 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6">
+        <v>137</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3435,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3446,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3455,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>题目</t>
   </si>
@@ -133,10 +133,19 @@
     <t>code4-寻找两个正序数组的中位数</t>
   </si>
   <si>
-    <t>2025.03.02~2025.03.05==&gt;4day</t>
+    <t>2025.03.02~2025.03.06==&gt;5day</t>
   </si>
   <si>
     <t>很难</t>
+  </si>
+  <si>
+    <t>code206-反转链表</t>
+  </si>
+  <si>
+    <t>2025.03.07</t>
+  </si>
+  <si>
+    <t>递归实现了，迭代没实现出来</t>
   </si>
   <si>
     <t>内容</t>
@@ -1240,8 +1249,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1465,12 +1474,24 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6">
+        <v>642</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3456,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3467,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3476,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>题目</t>
   </si>
@@ -142,10 +142,31 @@
     <t>code206-反转链表</t>
   </si>
   <si>
-    <t>2025.03.07</t>
+    <t>2025.03.09</t>
+  </si>
+  <si>
+    <t>4次/是</t>
   </si>
   <si>
     <t>递归实现了，迭代没实现出来</t>
+  </si>
+  <si>
+    <t>code876-链表的中间结点</t>
+  </si>
+  <si>
+    <t>2025.03.13</t>
+  </si>
+  <si>
+    <t>1次/是</t>
+  </si>
+  <si>
+    <t>简单题</t>
+  </si>
+  <si>
+    <t>acw790-数的三次方根</t>
+  </si>
+  <si>
+    <t>浮点数有很多易错点需要注意！！</t>
   </si>
   <si>
     <t>内容</t>
@@ -1249,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1487,29 +1508,53 @@
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="G13" s="15"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3477,10 +3522,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3488,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3497,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13360" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>题目</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>浮点数有很多易错点需要注意！！</t>
+  </si>
+  <si>
+    <t>code160-相交链表</t>
+  </si>
+  <si>
+    <t>2025.03.14</t>
   </si>
   <si>
     <t>内容</t>
@@ -1271,7 +1277,7 @@
   <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1558,11 +1564,21 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
+        <v>183</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="15"/>
     </row>
@@ -3522,10 +3538,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3533,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3542,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13360" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>题目</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>2025.03.14</t>
+  </si>
+  <si>
+    <t>code141环形链表</t>
+  </si>
+  <si>
+    <t>2025.03.17</t>
   </si>
   <si>
     <t>内容</t>
@@ -1276,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1583,11 +1589,21 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
+        <v>228</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="15"/>
     </row>
@@ -3538,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3549,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3558,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13340" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>题目</t>
   </si>
@@ -130,7 +130,7 @@
     <t>指针/3路快排的实现不够熟练</t>
   </si>
   <si>
-    <t>code4-寻找两个正序数组的中位数</t>
+    <t>code4- 寻找两个正序数组的中位数</t>
   </si>
   <si>
     <t>2025.03.02~2025.03.06==&gt;5day</t>
@@ -139,7 +139,7 @@
     <t>很难</t>
   </si>
   <si>
-    <t>code206-反转链表</t>
+    <t>code206- 反转链表</t>
   </si>
   <si>
     <t>2025.03.09</t>
@@ -151,7 +151,7 @@
     <t>递归实现了，迭代没实现出来</t>
   </si>
   <si>
-    <t>code876-链表的中间结点</t>
+    <t>code876- 链表的中间结点</t>
   </si>
   <si>
     <t>2025.03.13</t>
@@ -163,22 +163,31 @@
     <t>简单题</t>
   </si>
   <si>
-    <t>acw790-数的三次方根</t>
+    <t>acw790- 数的三次方根</t>
   </si>
   <si>
     <t>浮点数有很多易错点需要注意！！</t>
   </si>
   <si>
-    <t>code160-相交链表</t>
+    <t>code160- 相交链表</t>
   </si>
   <si>
     <t>2025.03.14</t>
   </si>
   <si>
-    <t>code141环形链表</t>
+    <t>code141- 环形链表</t>
   </si>
   <si>
     <t>2025.03.17</t>
+  </si>
+  <si>
+    <t>code92- 反转链表II</t>
+  </si>
+  <si>
+    <t>2025.03.18~03.19</t>
+  </si>
+  <si>
+    <t>典型题目！</t>
   </si>
   <si>
     <t>内容</t>
@@ -1283,7 +1292,7 @@
   <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1608,12 +1617,24 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6">
+        <v>220</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3554,10 +3575,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3565,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3574,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13340" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>题目</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>典型题目！</t>
+  </si>
+  <si>
+    <t>code328-奇偶链表</t>
+  </si>
+  <si>
+    <t>2025.03.21</t>
+  </si>
+  <si>
+    <t>很容易出错！</t>
   </si>
   <si>
     <t>内容</t>
@@ -1291,8 +1300,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1638,12 +1647,24 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
+        <v>31</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -3575,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3586,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3595,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>题目</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>很容易出错！</t>
+  </si>
+  <si>
+    <t>code225_用队列实现栈</t>
+  </si>
+  <si>
+    <t>2025.03.24</t>
   </si>
   <si>
     <t>内容</t>
@@ -1668,13 +1674,23 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A19" s="7"/>
@@ -3596,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3607,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3616,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13300" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>题目</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>2025.03.24</t>
+  </si>
+  <si>
+    <t>code346-从数据流中移动平均值</t>
+  </si>
+  <si>
+    <t>2025.03.25</t>
+  </si>
+  <si>
+    <t>code281-之字形迭代器</t>
+  </si>
+  <si>
+    <t>2025.03.26</t>
   </si>
   <si>
     <t>内容</t>
@@ -1306,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1693,20 +1705,40 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="8"/>
     </row>
@@ -3612,10 +3644,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3623,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3632,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13300" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13360" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>题目</t>
   </si>
@@ -184,7 +184,7 @@
     <t>code92- 反转链表II</t>
   </si>
   <si>
-    <t>2025.03.18~03.19</t>
+    <t>2025.03.18~03.19==&gt;2day</t>
   </si>
   <si>
     <t>典型题目！</t>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>2025.03.26</t>
+  </si>
+  <si>
+    <t>code1429-第一个唯一数字</t>
+  </si>
+  <si>
+    <t>2025.04.22</t>
+  </si>
+  <si>
+    <t>code54-螺旋矩阵</t>
+  </si>
+  <si>
+    <t>2025.04.23~2025.04.24==&gt;2day</t>
+  </si>
+  <si>
+    <t>还需要练习，极不熟练</t>
+  </si>
+  <si>
+    <t>code362-敲击计数器</t>
+  </si>
+  <si>
+    <t>2025.04.25</t>
   </si>
   <si>
     <t>内容</t>
@@ -1318,8 +1339,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1743,29 +1764,61 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6">
+        <v>218</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="8"/>
     </row>
@@ -3644,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3655,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3664,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13360" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>题目</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>2025.04.25</t>
+  </si>
+  <si>
+    <t>code155-最小栈</t>
+  </si>
+  <si>
+    <t>2025.04.28</t>
+  </si>
+  <si>
+    <t>code232-用栈实现队列</t>
+  </si>
+  <si>
+    <t>2025.05.07</t>
   </si>
   <si>
     <t>内容</t>
@@ -1339,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1823,20 +1835,40 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6">
+        <v>93</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="6">
+        <v>130</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="8"/>
     </row>
@@ -3697,10 +3729,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3708,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3717,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13380" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>题目</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>2025.05.07</t>
+  </si>
+  <si>
+    <t>code150-逆波兰表达式求值</t>
+  </si>
+  <si>
+    <t>2025.05.13</t>
   </si>
   <si>
     <t>内容</t>
@@ -1351,8 +1357,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1873,11 +1879,21 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6">
+        <v>13</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="8"/>
     </row>
@@ -3729,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3740,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3749,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>题目</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>2025.05.13</t>
+  </si>
+  <si>
+    <t>code224-基本计算器</t>
+  </si>
+  <si>
+    <t>2025.05.14~2025.05.15==&gt;2day</t>
+  </si>
+  <si>
+    <t>code20-有效的括号</t>
+  </si>
+  <si>
+    <t>2025.05.16</t>
   </si>
   <si>
     <t>内容</t>
@@ -1357,8 +1369,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1898,20 +1910,40 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="6">
+        <v>115</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="8"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="6">
+        <v>248</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="8"/>
     </row>
@@ -3745,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3756,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3765,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>题目</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>2025.05.16</t>
+  </si>
+  <si>
+    <t>code1472-设计浏览器历史记录</t>
+  </si>
+  <si>
+    <t>2025.05.19</t>
   </si>
   <si>
     <t>内容</t>
@@ -1948,11 +1954,21 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
     </row>
@@ -3777,10 +3793,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3788,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3797,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>题目</t>
   </si>
@@ -272,6 +272,30 @@
   </si>
   <si>
     <t>2025.05.19</t>
+  </si>
+  <si>
+    <t>code1209-删除字符串中的所有相邻重复项 II</t>
+  </si>
+  <si>
+    <t>2025.05.20</t>
+  </si>
+  <si>
+    <t>code1429-移除无效的括号</t>
+  </si>
+  <si>
+    <t>2025.05.21</t>
+  </si>
+  <si>
+    <t>code735-小行星碰撞</t>
+  </si>
+  <si>
+    <t>2025.05.22</t>
+  </si>
+  <si>
+    <t>code71-简化路径</t>
+  </si>
+  <si>
+    <t>2025.05.23</t>
   </si>
   <si>
     <t>内容</t>
@@ -1375,8 +1399,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1973,47 +1997,97 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+    <row r="31" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="6">
+        <v>11</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="6">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="6">
+        <v>23</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="8"/>
     </row>
@@ -3793,10 +3867,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3804,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3813,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
   <si>
     <t>题目</t>
   </si>
@@ -296,6 +296,21 @@
   </si>
   <si>
     <t>2025.05.23</t>
+  </si>
+  <si>
+    <t>code341-扁平化嵌套列表迭代器</t>
+  </si>
+  <si>
+    <t>2025.05.28</t>
+  </si>
+  <si>
+    <t>code1-两数之和</t>
+  </si>
+  <si>
+    <t>2025.05.29</t>
+  </si>
+  <si>
+    <t>3次/是</t>
   </si>
   <si>
     <t>内容</t>
@@ -1399,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2092,20 +2107,40 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="8"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="6">
+        <v>277</v>
+      </c>
+      <c r="C36" s="14">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="8"/>
     </row>
@@ -3867,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3878,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3887,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>题目</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>3次/是</t>
+  </si>
+  <si>
+    <t>code146-LRU缓存</t>
+  </si>
+  <si>
+    <t>2025.06.05~06.12==&gt; 7day</t>
+  </si>
+  <si>
+    <t>code128-最长连续序列</t>
+  </si>
+  <si>
+    <t>2025.06.13</t>
   </si>
   <si>
     <t>内容</t>
@@ -1414,8 +1426,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2132,8 +2144,8 @@
       <c r="B36" s="6">
         <v>277</v>
       </c>
-      <c r="C36" s="14">
-        <v>7</v>
+      <c r="C36" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>91</v>
@@ -2145,20 +2157,40 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="6">
+        <v>752</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="8"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="6">
+        <v>78</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="8"/>
     </row>
@@ -3902,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3913,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3922,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>题目</t>
   </si>
@@ -323,6 +323,24 @@
   </si>
   <si>
     <t>2025.06.13</t>
+  </si>
+  <si>
+    <t>code73-矩阵置0</t>
+  </si>
+  <si>
+    <t>2025.06.17</t>
+  </si>
+  <si>
+    <t>code380-O(1)插入+删除+获取随机元素</t>
+  </si>
+  <si>
+    <t>2025.06.19</t>
+  </si>
+  <si>
+    <t>code49-字母异位词分组</t>
+  </si>
+  <si>
+    <t>2025.06.20</t>
   </si>
   <si>
     <t>内容</t>
@@ -1426,8 +1444,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2195,29 +2213,59 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="6">
+        <v>11</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="6">
+        <v>17</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="6">
+        <v>12</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="8"/>
     </row>
@@ -3934,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3945,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -3954,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
   <si>
     <t>题目</t>
   </si>
@@ -341,6 +341,24 @@
   </si>
   <si>
     <t>2025.06.20</t>
+  </si>
+  <si>
+    <t>code350-两个数组的交集 II</t>
+  </si>
+  <si>
+    <t>2025.06.21</t>
+  </si>
+  <si>
+    <t>code299-猜数字游戏</t>
+  </si>
+  <si>
+    <t>2025.06.23</t>
+  </si>
+  <si>
+    <t>code348-设计井字棋</t>
+  </si>
+  <si>
+    <t>2025.06.25</t>
   </si>
   <si>
     <t>内容</t>
@@ -1444,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2270,29 +2288,59 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="6">
+        <v>7</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="A44" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="8"/>
     </row>
@@ -3982,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -3993,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4002,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="115">
   <si>
     <t>题目</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>2025.06.25</t>
+  </si>
+  <si>
+    <t>code973-最接近原点的K个点</t>
+  </si>
+  <si>
+    <t>2025.07.01~07.03==&gt; 3day</t>
   </si>
   <si>
     <t>内容</t>
@@ -2345,11 +2351,21 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="A45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="6">
+        <v>3</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="8"/>
     </row>
@@ -4030,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4041,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4050,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>题目</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>2025.07.01~07.03==&gt; 3day</t>
+  </si>
+  <si>
+    <t>code347- 前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>2025.07.04~07.05==&gt; 2day</t>
   </si>
   <si>
     <t>内容</t>
@@ -1468,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2370,11 +2376,21 @@
       <c r="G45" s="8"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="6">
+        <v>33</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="8"/>
     </row>
@@ -4046,10 +4062,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4057,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4066,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$B$2:$G$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">算法统计!$B$2:$G$258</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="130">
   <si>
     <t>题目</t>
   </si>
@@ -371,6 +371,45 @@
   </si>
   <si>
     <t>2025.07.04~07.05==&gt; 2day</t>
+  </si>
+  <si>
+    <t>codec23- 合并 K 个升序链表</t>
+  </si>
+  <si>
+    <t>2025.07.07~07.11==&gt; 4day</t>
+  </si>
+  <si>
+    <t>5次/否</t>
+  </si>
+  <si>
+    <t>codec264- 丑数 II</t>
+  </si>
+  <si>
+    <t>2025.07.14~07.15==&gt; 2day</t>
+  </si>
+  <si>
+    <t>code1086- 前五科的均分</t>
+  </si>
+  <si>
+    <t>2025.07.16~07.18==&gt; 3day</t>
+  </si>
+  <si>
+    <t>code88- 合并两个有序数组</t>
+  </si>
+  <si>
+    <t>2025.07.21</t>
+  </si>
+  <si>
+    <t>code692- 前K个高频单词</t>
+  </si>
+  <si>
+    <t>2025.07.23</t>
+  </si>
+  <si>
+    <t>code378-有序矩阵中第 K 小的元素</t>
+  </si>
+  <si>
+    <t>2025.07.24~07.25</t>
   </si>
   <si>
     <t>内容</t>
@@ -1472,10 +1511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2395,56 +2434,116 @@
       <c r="G46" s="8"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="6">
+        <v>216</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="A48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="6">
+        <v>24</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="A49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A50" s="7"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="A50" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="6">
+        <v>255</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A51" s="7"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="6">
+        <v>16</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="8"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="6">
+        <v>20</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="8"/>
     </row>
@@ -2457,7 +2556,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="169" customHeight="1" spans="1:7">
+    <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="14"/>
@@ -2466,7 +2565,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="55" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="14"/>
@@ -2475,7 +2574,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="56" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="14"/>
@@ -2484,7 +2583,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="57" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="14"/>
@@ -2493,7 +2592,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="58" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="14"/>
@@ -2502,7 +2601,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="59" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="14"/>
@@ -2511,7 +2610,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
+    <row r="60" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="14"/>
@@ -2520,7 +2619,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="61" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61" s="14"/>
@@ -2529,7 +2628,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="62" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="14"/>
@@ -2538,7 +2637,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="63" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="14"/>
@@ -2547,7 +2646,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="64" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64" s="14"/>
@@ -2556,7 +2655,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="65" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65" s="14"/>
@@ -2565,7 +2664,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="66" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66" s="14"/>
@@ -2574,7 +2673,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="67" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="14"/>
@@ -2583,7 +2682,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="68" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="14"/>
@@ -2592,7 +2691,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="69" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69" s="14"/>
@@ -2601,7 +2700,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="70" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="14"/>
@@ -2610,7 +2709,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="71" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71" s="14"/>
@@ -2619,7 +2718,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="72" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72" s="14"/>
@@ -2628,7 +2727,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="73" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73" s="14"/>
@@ -2637,7 +2736,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="74" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="14"/>
@@ -2646,7 +2745,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="75" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
       <c r="C75" s="14"/>
@@ -2655,7 +2754,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="76" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76" s="14"/>
@@ -2664,7 +2763,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="77" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="14"/>
@@ -2673,7 +2772,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="78" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
       <c r="C78" s="14"/>
@@ -2682,7 +2781,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="79" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79" s="14"/>
@@ -2691,7 +2790,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="80" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80" s="14"/>
@@ -2700,7 +2799,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="81" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="14"/>
@@ -2709,7 +2808,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="82" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="14"/>
@@ -2718,7 +2817,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="83" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="14"/>
@@ -2727,7 +2826,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="84" s="1" customFormat="1" ht="169" customHeight="1" spans="1:7">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="14"/>
@@ -2763,16 +2862,16 @@
       <c r="F87" s="6"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A88" s="10"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="14"/>
@@ -2781,7 +2880,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+    <row r="90" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="14"/>
@@ -2790,7 +2889,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="51" customHeight="1" spans="1:7">
+    <row r="91" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="14"/>
@@ -2799,7 +2898,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="92" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="14"/>
@@ -2808,7 +2907,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="93" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="14"/>
@@ -2817,7 +2916,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="94" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="14"/>
@@ -2826,7 +2925,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="95" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="14"/>
@@ -2835,7 +2934,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="96" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="14"/>
@@ -2844,7 +2943,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="97" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="14"/>
@@ -2853,7 +2952,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="98" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="14"/>
@@ -2871,16 +2970,16 @@
       <c r="F99" s="6"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A100" s="10"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="16"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A100" s="7"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="14"/>
@@ -3033,7 +3132,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+    <row r="118" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A118" s="10"/>
       <c r="B118" s="9"/>
       <c r="C118" s="11"/>
@@ -3042,7 +3141,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
+    <row r="119" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="14"/>
@@ -3051,7 +3150,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="120" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="14"/>
@@ -3060,7 +3159,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="121" s="1" customFormat="1" ht="51" customHeight="1" spans="1:7">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="14"/>
@@ -3069,7 +3168,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="122" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="14"/>
@@ -3078,7 +3177,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+    <row r="123" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="14"/>
@@ -3087,7 +3186,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+    <row r="124" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="14"/>
@@ -3096,7 +3195,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+    <row r="125" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="14"/>
@@ -3105,7 +3204,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" s="1" customFormat="1" ht="67" customHeight="1" spans="1:7">
+    <row r="126" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="14"/>
@@ -3114,7 +3213,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="38" customHeight="1" spans="1:7">
+    <row r="127" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="14"/>
@@ -3123,7 +3222,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+    <row r="128" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="14"/>
@@ -3132,7 +3231,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
+    <row r="129" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="14"/>
@@ -3141,16 +3240,16 @@
       <c r="F129" s="6"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A130" s="7"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="8"/>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
+    <row r="130" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A130" s="10"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="16"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="14"/>
@@ -3159,7 +3258,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" s="1" customFormat="1" ht="94" customHeight="1" spans="1:7">
+    <row r="132" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="14"/>
@@ -3168,7 +3267,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="133" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="14"/>
@@ -3177,7 +3276,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="134" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="14"/>
@@ -3186,7 +3285,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="135" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="14"/>
@@ -3195,7 +3294,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="136" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="14"/>
@@ -3204,7 +3303,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="8"/>
     </row>
-    <row r="137" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="137" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="14"/>
@@ -3213,7 +3312,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="14"/>
@@ -3222,7 +3321,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="14"/>
@@ -3231,7 +3330,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="14"/>
@@ -3240,7 +3339,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="141" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="14"/>
@@ -3249,7 +3348,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="142" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="14"/>
@@ -3258,7 +3357,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+    <row r="143" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="14"/>
@@ -3267,16 +3366,16 @@
       <c r="F143" s="6"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
-      <c r="A144" s="11"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-    </row>
-    <row r="145" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+    <row r="144" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A144" s="7"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="14"/>
@@ -3303,16 +3402,16 @@
       <c r="F147" s="6"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A148" s="7"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="8"/>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="148" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A148" s="10"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="16"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="55" customHeight="1" spans="1:7">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="14"/>
@@ -3321,7 +3420,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="150" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="14"/>
@@ -3330,7 +3429,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="151" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="14"/>
@@ -3339,7 +3438,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="152" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="14"/>
@@ -3348,7 +3447,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="8"/>
     </row>
-    <row r="153" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="153" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="14"/>
@@ -3357,7 +3456,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="154" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="14"/>
@@ -3366,7 +3465,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="155" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="14"/>
@@ -3375,7 +3474,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="156" s="1" customFormat="1" ht="67" customHeight="1" spans="1:7">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="14"/>
@@ -3384,7 +3483,7 @@
       <c r="F156" s="6"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="157" s="1" customFormat="1" ht="38" customHeight="1" spans="1:7">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="14"/>
@@ -3393,7 +3492,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="158" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="14"/>
@@ -3402,7 +3501,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
+    <row r="159" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="14"/>
@@ -3411,16 +3510,16 @@
       <c r="F159" s="6"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" s="2" customFormat="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A160" s="10"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="16"/>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="160" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A160" s="7"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="60" customHeight="1" spans="1:7">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="14"/>
@@ -3429,7 +3528,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="162" s="1" customFormat="1" ht="94" customHeight="1" spans="1:7">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="14"/>
@@ -3438,7 +3537,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="163" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="14"/>
@@ -3447,16 +3546,16 @@
       <c r="F163" s="6"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
-      <c r="A164" s="11"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="164" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A164" s="7"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="14"/>
@@ -3465,7 +3564,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="166" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="14"/>
@@ -3474,7 +3573,7 @@
       <c r="F166" s="6"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="167" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="14"/>
@@ -3483,7 +3582,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="168" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="14"/>
@@ -3492,7 +3591,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="169" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="14"/>
@@ -3501,7 +3600,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="170" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="14"/>
@@ -3510,7 +3609,7 @@
       <c r="F170" s="6"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="171" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="14"/>
@@ -3519,7 +3618,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="172" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="14"/>
@@ -3528,7 +3627,7 @@
       <c r="F172" s="6"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="173" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="14"/>
@@ -3537,16 +3636,16 @@
       <c r="F173" s="6"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A174" s="7"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="8"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="174" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A174" s="11"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="14"/>
@@ -3627,7 +3726,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="184" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="14"/>
@@ -3663,16 +3762,16 @@
       <c r="F187" s="6"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A188" s="10"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="16"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="188" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A188" s="7"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="42" customHeight="1" spans="1:7">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="14"/>
@@ -3681,16 +3780,16 @@
       <c r="F189" s="6"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A190" s="7"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="8"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="190" s="2" customFormat="1" ht="48" customHeight="1" spans="1:7">
+      <c r="A190" s="10"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="14"/>
@@ -3699,7 +3798,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="192" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="14"/>
@@ -3717,14 +3816,14 @@
       <c r="F193" s="6"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A194" s="7"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="8"/>
+    <row r="194" s="2" customFormat="1" ht="44" customHeight="1" spans="1:7">
+      <c r="A194" s="11"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
     </row>
     <row r="195" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A195" s="7"/>
@@ -3735,16 +3834,16 @@
       <c r="F195" s="6"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A196" s="11"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="196" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A196" s="7"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="14"/>
@@ -3753,7 +3852,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="198" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="14"/>
@@ -3762,7 +3861,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
+    <row r="199" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="14"/>
@@ -3771,7 +3870,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="200" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="14"/>
@@ -3780,7 +3879,7 @@
       <c r="F200" s="6"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="201" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A201" s="7"/>
       <c r="B201" s="6"/>
       <c r="C201" s="14"/>
@@ -3789,7 +3888,7 @@
       <c r="F201" s="6"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="202" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A202" s="7"/>
       <c r="B202" s="6"/>
       <c r="C202" s="14"/>
@@ -3798,7 +3897,7 @@
       <c r="F202" s="6"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="203" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A203" s="7"/>
       <c r="B203" s="6"/>
       <c r="C203" s="14"/>
@@ -3807,7 +3906,7 @@
       <c r="F203" s="6"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="204" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A204" s="7"/>
       <c r="B204" s="6"/>
       <c r="C204" s="14"/>
@@ -3816,7 +3915,7 @@
       <c r="F204" s="6"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="205" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A205" s="7"/>
       <c r="B205" s="6"/>
       <c r="C205" s="14"/>
@@ -3825,7 +3924,7 @@
       <c r="F205" s="6"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="206" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A206" s="7"/>
       <c r="B206" s="6"/>
       <c r="C206" s="14"/>
@@ -3834,7 +3933,7 @@
       <c r="F206" s="6"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="207" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A207" s="7"/>
       <c r="B207" s="6"/>
       <c r="C207" s="14"/>
@@ -3843,7 +3942,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="208" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A208" s="7"/>
       <c r="B208" s="6"/>
       <c r="C208" s="14"/>
@@ -3852,7 +3951,7 @@
       <c r="F208" s="6"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="209" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A209" s="7"/>
       <c r="B209" s="6"/>
       <c r="C209" s="14"/>
@@ -3861,7 +3960,7 @@
       <c r="F209" s="6"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="210" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A210" s="7"/>
       <c r="B210" s="6"/>
       <c r="C210" s="14"/>
@@ -3870,7 +3969,7 @@
       <c r="F210" s="6"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="211" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A211" s="7"/>
       <c r="B211" s="6"/>
       <c r="C211" s="14"/>
@@ -3879,7 +3978,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+    <row r="212" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A212" s="7"/>
       <c r="B212" s="6"/>
       <c r="C212" s="14"/>
@@ -3888,7 +3987,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+    <row r="213" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A213" s="7"/>
       <c r="B213" s="6"/>
       <c r="C213" s="14"/>
@@ -3897,16 +3996,16 @@
       <c r="F213" s="6"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" s="2" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A214" s="11"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-    </row>
-    <row r="215" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+    <row r="214" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A214" s="7"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A215" s="7"/>
       <c r="B215" s="6"/>
       <c r="C215" s="14"/>
@@ -3915,7 +4014,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+    <row r="216" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A216" s="7"/>
       <c r="B216" s="6"/>
       <c r="C216" s="14"/>
@@ -3924,7 +4023,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+    <row r="217" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A217" s="7"/>
       <c r="B217" s="6"/>
       <c r="C217" s="14"/>
@@ -3933,23 +4032,23 @@
       <c r="F217" s="6"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A218" s="7"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="6"/>
-      <c r="G218" s="8"/>
-    </row>
-    <row r="219" s="2" customFormat="1" ht="43" customHeight="1" spans="1:7">
-      <c r="A219" s="11"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
+    <row r="218" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A218" s="10"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="16"/>
+    </row>
+    <row r="219" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A219" s="7"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="8"/>
     </row>
     <row r="220" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A220" s="7"/>
@@ -3978,61 +4077,331 @@
       <c r="F222" s="6"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+    <row r="223" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A223" s="7"/>
       <c r="B223" s="6"/>
       <c r="C223" s="14"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
-      <c r="F223" s="8"/>
+      <c r="F223" s="6"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="224" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A224" s="7"/>
       <c r="B224" s="6"/>
       <c r="C224" s="14"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
-      <c r="F224" s="12"/>
+      <c r="F224" s="6"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="225" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A225" s="7"/>
       <c r="B225" s="6"/>
       <c r="C225" s="14"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
-      <c r="F225" s="12"/>
+      <c r="F225" s="6"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A226" s="7"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="8"/>
-    </row>
-    <row r="227" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="226" s="2" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A226" s="11"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+    </row>
+    <row r="227" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A227" s="7"/>
       <c r="B227" s="6"/>
       <c r="C227" s="14"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
-      <c r="F227" s="12"/>
+      <c r="F227" s="6"/>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="228" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
       <c r="A228" s="7"/>
       <c r="B228" s="6"/>
       <c r="C228" s="14"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
-      <c r="F228" s="12"/>
+      <c r="F228" s="6"/>
       <c r="G228" s="8"/>
     </row>
-    <row r="229" ht="34" customHeight="1"/>
+    <row r="229" s="1" customFormat="1" ht="53" customHeight="1" spans="1:7">
+      <c r="A229" s="7"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="8"/>
+    </row>
+    <row r="230" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A230" s="7"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="8"/>
+    </row>
+    <row r="231" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A231" s="7"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="8"/>
+    </row>
+    <row r="232" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A232" s="7"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="8"/>
+    </row>
+    <row r="233" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A233" s="7"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="8"/>
+    </row>
+    <row r="234" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A234" s="7"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="8"/>
+    </row>
+    <row r="235" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A235" s="7"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A236" s="7"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="8"/>
+    </row>
+    <row r="237" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A237" s="7"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="8"/>
+    </row>
+    <row r="238" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A238" s="7"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="8"/>
+    </row>
+    <row r="239" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A239" s="7"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="8"/>
+    </row>
+    <row r="240" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A240" s="7"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="8"/>
+    </row>
+    <row r="241" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A241" s="7"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="8"/>
+    </row>
+    <row r="242" s="1" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A242" s="7"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+      <c r="A243" s="7"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" s="2" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A244" s="11"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+    </row>
+    <row r="245" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A245" s="7"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="8"/>
+    </row>
+    <row r="246" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A246" s="7"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A247" s="7"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="8"/>
+    </row>
+    <row r="248" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A248" s="7"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="8"/>
+    </row>
+    <row r="249" s="2" customFormat="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A249" s="11"/>
+      <c r="B249" s="9"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
+    </row>
+    <row r="250" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A250" s="7"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="8"/>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A251" s="7"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="8"/>
+    </row>
+    <row r="252" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A252" s="7"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="8"/>
+    </row>
+    <row r="253" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+      <c r="A253" s="7"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="8"/>
+      <c r="G253" s="8"/>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A254" s="7"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A255" s="7"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="8"/>
+    </row>
+    <row r="256" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A256" s="7"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="8"/>
+    </row>
+    <row r="257" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A257" s="7"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="8"/>
+    </row>
+    <row r="258" s="1" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A258" s="7"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="8"/>
+    </row>
+    <row r="259" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4062,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4073,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4082,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
   <si>
     <t>题目</t>
   </si>
@@ -410,6 +410,18 @@
   </si>
   <si>
     <t>2025.07.24~07.25</t>
+  </si>
+  <si>
+    <t>code295-数据流的中位数</t>
+  </si>
+  <si>
+    <t>2025.07.28~07.29</t>
+  </si>
+  <si>
+    <t>code767-重构字符串</t>
+  </si>
+  <si>
+    <t>2025.07.31~08.01</t>
   </si>
   <si>
     <t>内容</t>
@@ -1514,7 +1526,7 @@
   <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2548,20 +2560,40 @@
       <c r="G52" s="8"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="6">
+        <v>33</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="8"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="6">
+        <v>8</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="8"/>
     </row>
@@ -4431,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4442,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4451,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13380" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13360" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
   <si>
     <t>题目</t>
   </si>
@@ -422,6 +422,42 @@
   </si>
   <si>
     <t>2025.07.31~08.01</t>
+  </si>
+  <si>
+    <t>code1438- 绝对差不超过限制的最长连续子数组</t>
+  </si>
+  <si>
+    <t>2025.08.05~08.05</t>
+  </si>
+  <si>
+    <t>code895- 最大频率栈</t>
+  </si>
+  <si>
+    <t>2025.08.06</t>
+  </si>
+  <si>
+    <t>code34- 在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>2025.08.11</t>
+  </si>
+  <si>
+    <t>code33- 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>2025.08.12~ 2025.08.13==&gt; 2day</t>
+  </si>
+  <si>
+    <t>code1095- 山脉数组中查找目标值</t>
+  </si>
+  <si>
+    <t>2025.08.15==&gt; 1day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code162- 寻找峰值</t>
+  </si>
+  <si>
+    <t>2025.09.01==&gt; 1day</t>
   </si>
   <si>
     <t>内容</t>
@@ -1525,13 +1561,13 @@
   <sheetPr/>
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="47.1153846153846" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.7788461538462" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7788461538462" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.4711538461538" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.625" style="1" customWidth="1"/>
@@ -2598,56 +2634,116 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="6">
+        <v>7</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="8"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="A56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="6">
+        <v>8</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="8"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A57" s="7"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="A57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="6">
+        <v>91</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="8"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A58" s="7"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="A58" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="6">
+        <v>277</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A59" s="7"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="A59" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="6">
+        <v>14</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="A60" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="6">
+        <v>76</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="8"/>
     </row>
@@ -4463,10 +4559,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4474,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4483,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13360" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13440" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
   <si>
     <t>题目</t>
   </si>
@@ -458,6 +458,24 @@
   </si>
   <si>
     <t>2025.09.01==&gt; 1day</t>
+  </si>
+  <si>
+    <t>code278- 第一个错误的版本</t>
+  </si>
+  <si>
+    <t>2025.09.02==&gt; 1day</t>
+  </si>
+  <si>
+    <t>code240- 搜索二维矩阵 II</t>
+  </si>
+  <si>
+    <t>2025.09.10==&gt; 1 day</t>
+  </si>
+  <si>
+    <t>code69- x 的平方根</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025.09.12==&gt; </t>
   </si>
   <si>
     <t>内容</t>
@@ -1561,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2748,29 +2766,59 @@
       <c r="G60" s="8"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A61" s="7"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="A61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="6">
+        <v>2</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="8"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A62" s="7"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="A62" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="6">
+        <v>80</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="8"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A63" s="7"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="A63" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="6">
+        <v>132</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="8"/>
     </row>
@@ -4559,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4570,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4579,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13440" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13360" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="算法统计" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
   <si>
     <t>题目</t>
   </si>
@@ -475,7 +475,13 @@
     <t>code69- x 的平方根</t>
   </si>
   <si>
-    <t xml:space="preserve">2025.09.12==&gt; </t>
+    <t>2025.09.12~ 9.16 ==&gt; 4day</t>
+  </si>
+  <si>
+    <t>code540- 有序数组中的单一元素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025.09.17 ==&gt; </t>
   </si>
   <si>
     <t>内容</t>
@@ -1580,7 +1586,7 @@
   <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2823,10 +2829,18 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A64" s="7"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="6">
+        <v>13</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E64" s="7"/>
       <c r="F64" s="6"/>
       <c r="G64" s="8"/>
@@ -4607,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4618,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4627,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
   <si>
     <t>题目</t>
   </si>
@@ -481,7 +481,19 @@
     <t>code540- 有序数组中的单一元素</t>
   </si>
   <si>
-    <t xml:space="preserve">2025.09.17 ==&gt; </t>
+    <t xml:space="preserve">2025.09.17 </t>
+  </si>
+  <si>
+    <t>ode644- 有子数组最大平均数 II</t>
+  </si>
+  <si>
+    <t>2025.09.22~ 9.23 ==&gt; 2day</t>
+  </si>
+  <si>
+    <t>code528- 按权重随机选择</t>
+  </si>
+  <si>
+    <t>2025.09.24~ 9.25 ==&gt; 2day</t>
   </si>
   <si>
     <t>内容</t>
@@ -1585,8 +1597,8 @@
   <sheetPr/>
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2841,25 +2853,47 @@
       <c r="D64" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="8"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A65" s="7"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="A65" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="8"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A66" s="7"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="A66" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="6">
+        <v>16</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="8"/>
     </row>
@@ -4621,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -4632,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -4641,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C3" s="6"/>
     </row>
